--- a/Gen_3/out/1.xlsx
+++ b/Gen_3/out/1.xlsx
@@ -1568,7 +1568,11 @@
           <t>gen_babble</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -1608,7 +1612,11 @@
           <t>gen_group_by_buble</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Г1</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -1616,7 +1624,11 @@
           <t>gen_comb_group</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Г1</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -1624,7 +1636,11 @@
           <t>gen_match</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Соответствует</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
